--- a/bookkeeper-testing3.xlsx
+++ b/bookkeeper-testing3.xlsx
@@ -1268,7 +1268,7 @@
         <v>70.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
         <v>955.0</v>
@@ -1432,7 +1432,7 @@
         <v>20.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G10" t="n">
         <v>225.0</v>
@@ -1473,7 +1473,7 @@
         <v>5.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>70.0</v>
@@ -1555,7 +1555,7 @@
         <v>25.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G13" t="n">
         <v>760.0</v>
@@ -1637,7 +1637,7 @@
         <v>10.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G15" t="n">
         <v>390.0</v>
@@ -1760,7 +1760,7 @@
         <v>35.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" t="n">
         <v>675.0</v>
@@ -1883,7 +1883,7 @@
         <v>15.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G21" t="n">
         <v>560.0</v>
@@ -1924,7 +1924,7 @@
         <v>35.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n">
         <v>650.0</v>
@@ -1965,7 +1965,7 @@
         <v>15.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G23" t="n">
         <v>240.0</v>
@@ -2088,7 +2088,7 @@
         <v>35.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G26" t="n">
         <v>220.0</v>
@@ -2293,7 +2293,7 @@
         <v>20.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G31" t="n">
         <v>165.0</v>
@@ -2375,7 +2375,7 @@
         <v>5.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
         <v>70.0</v>
@@ -2539,7 +2539,7 @@
         <v>10.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>140.0</v>
@@ -2580,7 +2580,7 @@
         <v>10.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" t="n">
         <v>120.0</v>
@@ -2621,7 +2621,7 @@
         <v>10.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
         <v>280.0</v>
@@ -2662,7 +2662,7 @@
         <v>10.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>270.0</v>
@@ -2703,7 +2703,7 @@
         <v>15.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
         <v>525.0</v>
@@ -2744,7 +2744,7 @@
         <v>30.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G42" t="n">
         <v>955.0</v>
@@ -2785,7 +2785,7 @@
         <v>30.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
         <v>940.0</v>
@@ -2949,7 +2949,7 @@
         <v>10.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
         <v>10.0</v>
@@ -2990,7 +2990,7 @@
         <v>5.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
         <v>10.0</v>
@@ -3195,7 +3195,7 @@
         <v>45.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="n">
         <v>910.0</v>
@@ -3236,7 +3236,7 @@
         <v>35.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G54" t="n">
         <v>735.0</v>
@@ -3318,7 +3318,7 @@
         <v>15.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G56" t="n">
         <v>200.0</v>
@@ -3400,7 +3400,7 @@
         <v>20.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" t="n">
         <v>180.0</v>
@@ -3441,7 +3441,7 @@
         <v>25.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
         <v>325.0</v>
@@ -3523,7 +3523,7 @@
         <v>10.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G61" t="n">
         <v>20.0</v>
@@ -3646,7 +3646,7 @@
         <v>5.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
         <v>25.0</v>
@@ -3687,7 +3687,7 @@
         <v>5.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G65" t="n">
         <v>155.0</v>
@@ -3728,7 +3728,7 @@
         <v>20.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G66" t="n">
         <v>1010.0</v>
@@ -3851,7 +3851,7 @@
         <v>20.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G69" t="n">
         <v>140.0</v>
@@ -3892,7 +3892,7 @@
         <v>30.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G70" t="n">
         <v>300.0</v>
@@ -3974,7 +3974,7 @@
         <v>45.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G72" t="n">
         <v>620.0</v>
@@ -4097,7 +4097,7 @@
         <v>10.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G75" t="n">
         <v>80.0</v>
@@ -4220,7 +4220,7 @@
         <v>25.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" t="n">
         <v>90.0</v>
@@ -4261,7 +4261,7 @@
         <v>20.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" t="n">
         <v>70.0</v>
@@ -4384,7 +4384,7 @@
         <v>10.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G82" t="n">
         <v>60.0</v>
@@ -4425,7 +4425,7 @@
         <v>5.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G83" t="n">
         <v>35.0</v>
@@ -4917,7 +4917,7 @@
         <v>5.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
         <v>1780.0</v>
@@ -4999,7 +4999,7 @@
         <v>15.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G97" t="n">
         <v>65.0</v>
@@ -5081,7 +5081,7 @@
         <v>45.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G99" t="n">
         <v>195.0</v>
@@ -5122,7 +5122,7 @@
         <v>5.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" t="n">
         <v>0.0</v>
@@ -5163,7 +5163,7 @@
         <v>5.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="n">
         <v>0.0</v>
@@ -5286,7 +5286,7 @@
         <v>20.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G104" t="n">
         <v>110.0</v>
@@ -5327,7 +5327,7 @@
         <v>35.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G105" t="n">
         <v>795.0</v>
@@ -5368,7 +5368,7 @@
         <v>5.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G106" t="n">
         <v>0.0</v>
@@ -5409,7 +5409,7 @@
         <v>25.0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G107" t="n">
         <v>400.0</v>
@@ -5450,7 +5450,7 @@
         <v>15.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G108" t="n">
         <v>25.0</v>
@@ -5491,7 +5491,7 @@
         <v>15.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G109" t="n">
         <v>15.0</v>
@@ -5655,7 +5655,7 @@
         <v>30.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G113" t="n">
         <v>90.0</v>
@@ -6024,7 +6024,7 @@
         <v>10.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G122" t="n">
         <v>10.0</v>
@@ -6106,7 +6106,7 @@
         <v>10.0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G124" t="n">
         <v>50.0</v>
@@ -6147,7 +6147,7 @@
         <v>5.0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G125" t="n">
         <v>115.0</v>
@@ -6434,7 +6434,7 @@
         <v>10.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G132" t="n">
         <v>530.0</v>
@@ -7869,7 +7869,7 @@
         <v>5.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G167" t="n">
         <v>25.0</v>
@@ -8074,7 +8074,7 @@
         <v>10.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G172" t="n">
         <v>90.0</v>
@@ -10083,7 +10083,7 @@
         <v>5.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G221" t="n">
         <v>5.0</v>
@@ -10575,7 +10575,7 @@
         <v>10.0</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G233" t="n">
         <v>270.0</v>
@@ -11477,7 +11477,7 @@
         <v>5.0</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G255" t="n">
         <v>75.0</v>
@@ -12174,7 +12174,7 @@
         <v>15.0</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G272" t="n">
         <v>360.0</v>
@@ -12461,7 +12461,7 @@
         <v>5.0</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G279" t="n">
         <v>40.0</v>
